--- a/Document Library/Bill Of Materials/Valkyrie BOM v1.2.0.xlsx
+++ b/Document Library/Bill Of Materials/Valkyrie BOM v1.2.0.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3837cd5b4a1a02ac/Document Library/GitHub/Project-Valkyrie/Document Library/Bill Of Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="685" documentId="11_BB46956AE7341EA83D7747123DA4EA88538076BF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FF5F2FAA-EC02-41F1-BF78-B514106F9BF9}"/>
+  <xr:revisionPtr revIDLastSave="699" documentId="11_BB46956AE7341EA83D7747123DA4EA88538076BF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D79993A8-5C75-4F09-A993-0E26C252F289}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1191,12 +1191,6 @@
     <t>RQG</t>
   </si>
   <si>
-    <t>NF-Smart_Dg V2.0</t>
-  </si>
-  <si>
-    <t>1x Color: Set 2/3/5/6</t>
-  </si>
-  <si>
     <t>M3 Nut Locknut</t>
   </si>
   <si>
@@ -1417,12 +1411,6 @@
   </si>
   <si>
     <t>1x Sunon MF60202V3</t>
-  </si>
-  <si>
-    <t>BQ H2 V2S Lite</t>
-  </si>
-  <si>
-    <t>H2 V2S LITE w/nema14</t>
   </si>
   <si>
     <t>CNA MS</t>
@@ -1491,6 +1479,18 @@
   </si>
   <si>
     <t>1xMGN9H/400mm. Medium PL</t>
+  </si>
+  <si>
+    <t>BIQU H2 V2X</t>
+  </si>
+  <si>
+    <t>Dragon Hotend HF</t>
+  </si>
+  <si>
+    <t>1x Dragon HF</t>
+  </si>
+  <si>
+    <t>Dilan</t>
   </si>
 </sst>
 </file>
@@ -2119,6 +2119,9 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2127,9 +2130,6 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3193,27 +3193,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="27.75" hidden="1" thickBot="1">
-      <c r="A1" s="112" t="s">
-        <v>262</v>
-      </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
-      <c r="K1" s="112"/>
-      <c r="L1" s="112"/>
+      <c r="A1" s="113" t="s">
+        <v>260</v>
+      </c>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
+      <c r="K1" s="113"/>
+      <c r="L1" s="113"/>
     </row>
     <row r="2" spans="1:14" s="6" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
       <c r="A2" s="42" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="42" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C2" s="43" t="s">
         <v>5</v>
@@ -3225,7 +3225,7 @@
       <c r="H2" s="44"/>
       <c r="I2" s="45">
         <f>I58</f>
-        <v>1903.0840000000003</v>
+        <v>1925.0840000000003</v>
       </c>
       <c r="J2" s="43"/>
       <c r="K2" s="50"/>
@@ -3301,7 +3301,7 @@
         <v>8</v>
       </c>
       <c r="J4" s="26" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="K4" s="28" t="s">
         <v>24</v>
@@ -3501,14 +3501,14 @@
         <v>20</v>
       </c>
       <c r="J9" s="25" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="K9" s="27" t="s">
         <v>24</v>
       </c>
       <c r="L9" s="69"/>
       <c r="M9" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="N9" s="86"/>
     </row>
@@ -3523,7 +3523,7 @@
         <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F10" s="9">
         <v>4</v>
@@ -3539,14 +3539,14 @@
         <v>40</v>
       </c>
       <c r="J10" s="25" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K10" s="27" t="s">
         <v>24</v>
       </c>
       <c r="L10" s="71"/>
       <c r="M10" s="87" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="N10" s="86"/>
     </row>
@@ -3561,7 +3561,7 @@
         <v>147</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="E11">
         <v>350</v>
@@ -3580,14 +3580,14 @@
         <v>120</v>
       </c>
       <c r="J11" s="25" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="K11" s="27" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="L11" s="72"/>
       <c r="M11" s="87" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="N11" s="86"/>
     </row>
@@ -3602,7 +3602,7 @@
         <v>147</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E12">
         <v>400</v>
@@ -3621,14 +3621,14 @@
         <v>72</v>
       </c>
       <c r="J12" s="25" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="K12" s="27" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="L12" s="72"/>
       <c r="M12" s="87" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="N12" s="86"/>
     </row>
@@ -3643,7 +3643,7 @@
         <v>147</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="E13">
         <v>400</v>
@@ -3662,10 +3662,10 @@
         <v>34</v>
       </c>
       <c r="J13" s="25" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="K13" s="27" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="L13" s="72"/>
       <c r="M13" s="2"/>
@@ -3682,7 +3682,7 @@
         <v>35</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="10"/>
@@ -3708,7 +3708,7 @@
         <v>35</v>
       </c>
       <c r="D15" s="102" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E15" s="102"/>
       <c r="F15" s="103"/>
@@ -3717,13 +3717,13 @@
       <c r="I15" s="105"/>
       <c r="J15" s="106"/>
       <c r="K15" s="107" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="L15" s="73"/>
-      <c r="M15" s="113" t="s">
-        <v>284</v>
-      </c>
-      <c r="N15" s="114"/>
+      <c r="M15" s="114" t="s">
+        <v>282</v>
+      </c>
+      <c r="N15" s="115"/>
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1">
       <c r="A16" s="91" t="s">
@@ -3736,7 +3736,7 @@
         <v>35</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="92">
@@ -3751,14 +3751,14 @@
         <v>0</v>
       </c>
       <c r="J16" s="69" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K16" s="98" t="s">
         <v>41</v>
       </c>
       <c r="L16" s="69"/>
-      <c r="M16" s="113"/>
-      <c r="N16" s="114"/>
+      <c r="M16" s="114"/>
+      <c r="N16" s="115"/>
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1" thickBot="1">
       <c r="A17" s="94" t="s">
@@ -3771,7 +3771,7 @@
         <v>35</v>
       </c>
       <c r="D17" s="95" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E17" s="95"/>
       <c r="F17" s="96">
@@ -3786,14 +3786,14 @@
         <v>0</v>
       </c>
       <c r="J17" s="110" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K17" s="99" t="s">
         <v>41</v>
       </c>
       <c r="L17" s="69"/>
-      <c r="M17" s="113"/>
-      <c r="N17" s="114"/>
+      <c r="M17" s="114"/>
+      <c r="N17" s="115"/>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="7" t="s">
@@ -3806,7 +3806,7 @@
         <v>36</v>
       </c>
       <c r="D18" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="E18">
         <v>410</v>
@@ -3825,14 +3825,14 @@
         <v>8</v>
       </c>
       <c r="J18" s="108" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="K18" s="12" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="L18" s="74"/>
-      <c r="M18" s="113"/>
-      <c r="N18" s="114"/>
+      <c r="M18" s="114"/>
+      <c r="N18" s="115"/>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="17" t="s">
@@ -3845,7 +3845,7 @@
         <v>36</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E19">
         <v>230</v>
@@ -3864,10 +3864,10 @@
         <v>14</v>
       </c>
       <c r="J19" s="108" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="K19" s="81" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="L19" s="74"/>
       <c r="M19" s="89"/>
@@ -3908,10 +3908,10 @@
         <v>41</v>
       </c>
       <c r="L20" s="74"/>
-      <c r="M20" s="113" t="s">
-        <v>285</v>
-      </c>
-      <c r="N20" s="114"/>
+      <c r="M20" s="114" t="s">
+        <v>283</v>
+      </c>
+      <c r="N20" s="115"/>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="7" t="s">
@@ -3951,8 +3951,8 @@
       <c r="L21" s="72" t="s">
         <v>214</v>
       </c>
-      <c r="M21" s="113"/>
-      <c r="N21" s="114"/>
+      <c r="M21" s="114"/>
+      <c r="N21" s="115"/>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="7" t="s">
@@ -4023,10 +4023,10 @@
         <v>56</v>
       </c>
       <c r="L23" s="74"/>
-      <c r="M23" s="113" t="s">
-        <v>286</v>
-      </c>
-      <c r="N23" s="114"/>
+      <c r="M23" s="114" t="s">
+        <v>284</v>
+      </c>
+      <c r="N23" s="115"/>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="7" t="s">
@@ -4063,8 +4063,8 @@
       <c r="L24" s="72" t="s">
         <v>203</v>
       </c>
-      <c r="M24" s="113"/>
-      <c r="N24" s="114"/>
+      <c r="M24" s="114"/>
+      <c r="N24" s="115"/>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="7" t="s">
@@ -4301,27 +4301,27 @@
       <c r="C31" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="D31" s="18" t="s">
-        <v>225</v>
+      <c r="D31" s="2" t="s">
+        <v>320</v>
       </c>
       <c r="F31" s="9">
         <v>1</v>
       </c>
       <c r="G31" s="10">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="H31" s="9">
         <v>1</v>
       </c>
       <c r="I31" s="39">
         <f t="shared" si="2"/>
-        <v>40</v>
-      </c>
-      <c r="J31" s="24" t="s">
-        <v>226</v>
-      </c>
-      <c r="K31" s="41" t="s">
-        <v>133</v>
+        <v>82</v>
+      </c>
+      <c r="J31" s="108" t="s">
+        <v>321</v>
+      </c>
+      <c r="K31" s="81" t="s">
+        <v>322</v>
       </c>
       <c r="L31" s="74"/>
       <c r="M31" s="89"/>
@@ -4374,26 +4374,26 @@
         <v>124</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>301</v>
+        <v>319</v>
       </c>
       <c r="F33" s="9">
         <v>1</v>
       </c>
       <c r="G33" s="10">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="H33" s="9">
         <v>1</v>
       </c>
       <c r="I33" s="39">
         <f t="shared" si="2"/>
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="J33" s="24" t="s">
-        <v>302</v>
+        <v>319</v>
       </c>
       <c r="K33" s="81" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="L33" s="74"/>
       <c r="M33" s="89"/>
@@ -4410,7 +4410,7 @@
         <v>36</v>
       </c>
       <c r="D34" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F34" s="9">
         <v>1</v>
@@ -4426,7 +4426,7 @@
         <v>3.75</v>
       </c>
       <c r="J34" s="24" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K34" s="12" t="s">
         <v>133</v>
@@ -4446,7 +4446,7 @@
         <v>36</v>
       </c>
       <c r="D35" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F35" s="9">
         <v>2</v>
@@ -4462,7 +4462,7 @@
         <v>10</v>
       </c>
       <c r="J35" s="24" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K35" s="12" t="s">
         <v>133</v>
@@ -4792,7 +4792,7 @@
         <v>148</v>
       </c>
       <c r="K44" s="82" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="L44" s="76"/>
       <c r="M44" s="89"/>
@@ -4828,7 +4828,7 @@
         <v>148</v>
       </c>
       <c r="K45" s="82" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="L45" s="76"/>
       <c r="M45" s="89"/>
@@ -4867,7 +4867,7 @@
         <v>206</v>
       </c>
       <c r="K46" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="L46" s="75"/>
       <c r="M46" s="89"/>
@@ -4881,10 +4881,10 @@
         <v>107</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D47" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F47" s="9">
         <v>5</v>
@@ -4900,10 +4900,10 @@
         <v>16.149999999999999</v>
       </c>
       <c r="J47" s="24" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K47" s="12" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="L47" s="75"/>
       <c r="M47" s="89"/>
@@ -4956,7 +4956,7 @@
         <v>149</v>
       </c>
       <c r="D49" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F49" s="9">
         <v>2</v>
@@ -4972,7 +4972,7 @@
         <v>24</v>
       </c>
       <c r="J49" s="109" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="K49" s="12" t="s">
         <v>176</v>
@@ -5045,7 +5045,7 @@
         <v>3.96</v>
       </c>
       <c r="J51" s="108" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="K51" s="12" t="s">
         <v>209</v>
@@ -5059,13 +5059,13 @@
         <v>154</v>
       </c>
       <c r="B52" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D52" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F52" s="9">
         <v>1</v>
@@ -5081,10 +5081,10 @@
         <v>3.72</v>
       </c>
       <c r="J52" s="24" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K52" s="81" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="L52" s="75"/>
       <c r="M52" s="89"/>
@@ -5095,13 +5095,13 @@
         <v>154</v>
       </c>
       <c r="B53" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C53" s="7" t="s">
         <v>108</v>
       </c>
       <c r="D53" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F53" s="9">
         <v>1</v>
@@ -5117,10 +5117,10 @@
         <v>4</v>
       </c>
       <c r="J53" s="108" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K53" s="12" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="L53" s="75"/>
       <c r="M53" s="89"/>
@@ -5131,13 +5131,13 @@
         <v>154</v>
       </c>
       <c r="B54" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C54" s="7" t="s">
         <v>108</v>
       </c>
       <c r="D54" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F54" s="9">
         <v>1</v>
@@ -5153,10 +5153,10 @@
         <v>3</v>
       </c>
       <c r="J54" s="108" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K54" s="12" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="L54" s="75"/>
       <c r="M54" s="89"/>
@@ -5167,13 +5167,13 @@
         <v>154</v>
       </c>
       <c r="B55" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C55" s="7" t="s">
         <v>163</v>
       </c>
       <c r="D55" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="F55" s="9">
         <v>1</v>
@@ -5189,10 +5189,10 @@
         <v>3</v>
       </c>
       <c r="J55" s="24" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="K55" s="81" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="L55" s="75"/>
       <c r="M55" s="89"/>
@@ -5209,7 +5209,7 @@
         <v>191</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="F56" s="9">
         <v>1</v>
@@ -5225,10 +5225,10 @@
         <v>15</v>
       </c>
       <c r="J56" s="111" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K56" s="81" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="L56" s="77"/>
       <c r="M56" s="89"/>
@@ -5243,7 +5243,7 @@
         <v>219</v>
       </c>
       <c r="D57" s="60" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E57" s="62"/>
       <c r="F57" s="63"/>
@@ -5267,7 +5267,7 @@
         <v>4</v>
       </c>
       <c r="C58" s="42" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D58" s="43" t="s">
         <v>5</v>
@@ -5278,7 +5278,7 @@
       <c r="H58" s="44"/>
       <c r="I58" s="45">
         <f>SUM(I18:I57)+I14</f>
-        <v>1903.0840000000003</v>
+        <v>1925.0840000000003</v>
       </c>
       <c r="J58" s="43"/>
       <c r="K58" s="50"/>
@@ -5308,51 +5308,51 @@
     <hyperlink ref="J27" r:id="rId11" display="1x Select Color: 220V/110V" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
     <hyperlink ref="L28" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
     <hyperlink ref="J29" r:id="rId13" display="1x 10Pcs Temperature: 160 degree" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="J31" r:id="rId14" display="Color: Dragon-Standard flow" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="J33" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="J38" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="J39" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="J40" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="J41" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="J42" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="J43" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="J48" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="J49" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="J50" r:id="rId24" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="J51" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="J30" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="J28" r:id="rId27" display="Genuine Omron Solid State Relay" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="L27" r:id="rId28" display="1x 310mm 220V 750W" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="L24" r:id="rId29" display="1x TMC2209 x8" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="L30" r:id="rId30" display="1x ADXL345 Accelerometer" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="J44" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="J45" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="J46" r:id="rId33" display="TBD" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="J32" r:id="rId34" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="L21" r:id="rId35" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="J53" r:id="rId36" display="https://www.aliexpress.com/item/4000071762309.html?spm=a2g0o.store_pc_allProduct.8148356.15.1894c53dn19kw8&amp;pdp_npi=2%40dis%21USD%21US%20%241.48%21US%20%241.26%21%21%21%21%21%402100bde116564933129322644e26f5%2112000029019588359%21sh" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="J54" r:id="rId37" display="https://www.aliexpress.com/item/4000071762309.html?spm=a2g0o.store_pc_allProduct.8148356.15.1894c53dn19kw8&amp;pdp_npi=2%40dis%21USD%21US%20%241.48%21US%20%241.26%21%21%21%21%21%402100bde116564933129322644e26f5%2112000029019588359%21sh" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="J55" r:id="rId38" display="1xAHT25+AHT21 Sensor" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="J52" r:id="rId39" xr:uid="{AA63318B-CE23-4460-98F0-9BED57088735}"/>
-    <hyperlink ref="J47" r:id="rId40" xr:uid="{C73F053A-AB99-4F9A-AB96-34675FD56AAD}"/>
-    <hyperlink ref="J34" r:id="rId41" xr:uid="{6B0C3554-C92C-477C-968B-C3A56DEE5BB2}"/>
-    <hyperlink ref="J35" r:id="rId42" xr:uid="{230B31B2-E3E9-4D33-8792-EA389633978B}"/>
-    <hyperlink ref="J19" r:id="rId43" xr:uid="{AE44EAD7-69DD-4806-9E2F-C1401214B95A}"/>
-    <hyperlink ref="J4" r:id="rId44" display="Color: 369 mm" xr:uid="{DEB61E4F-1486-491A-838D-61337A0DB5B3}"/>
-    <hyperlink ref="J5" r:id="rId45" xr:uid="{B0B2353F-D76B-49D2-92E2-924AA7C3940B}"/>
-    <hyperlink ref="J6" r:id="rId46" xr:uid="{A49E22B6-E552-4BE6-8729-184F520A838F}"/>
-    <hyperlink ref="J7" r:id="rId47" xr:uid="{47004657-0518-4245-B471-B34B5125E399}"/>
-    <hyperlink ref="J8" r:id="rId48" xr:uid="{6BAD6695-28C3-4B6D-8A72-B08E82F940DF}"/>
-    <hyperlink ref="J9" r:id="rId49" display="Color: 10pcs 2028" xr:uid="{C4B95C3B-16B9-4394-9F39-5B9FF78AC176}"/>
-    <hyperlink ref="J10" r:id="rId50" xr:uid="{3FB75D13-E1B1-4B85-B99D-0379606A4DAC}"/>
-    <hyperlink ref="M10" r:id="rId51" xr:uid="{03D23144-4452-41B9-B4B9-F51023FDC698}"/>
-    <hyperlink ref="M11" r:id="rId52" xr:uid="{410E10AD-6201-406C-BD2E-0E2A08BBF18C}"/>
-    <hyperlink ref="M12" r:id="rId53" xr:uid="{D0E8BE37-F76A-4921-AA1C-3F7A7D64A7BC}"/>
-    <hyperlink ref="J16" r:id="rId54" display="Makersupplies Complete Kit" xr:uid="{036B3E6D-568B-4079-9529-92EC099AA1B7}"/>
-    <hyperlink ref="J17" r:id="rId55" xr:uid="{3707A5E6-020E-4B23-B131-7499054C07E0}"/>
-    <hyperlink ref="J11" r:id="rId56" display="3xMGN 12H/350mm. NB! See note" xr:uid="{986BFB62-2F43-4E2D-BFCC-8BCC1953B23E}"/>
-    <hyperlink ref="J12" r:id="rId57" display="2xMGN12H/400mm. NB! See note" xr:uid="{AA85535F-A673-475C-AAB1-659BA149B4A6}"/>
-    <hyperlink ref="J13" r:id="rId58" display="1xMGN9H/400mm. NB! Seee note" xr:uid="{1F404FCE-EF32-4B37-BC20-7599369658D5}"/>
+    <hyperlink ref="J33" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="J38" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="J39" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="J40" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="J41" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="J42" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="J43" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="J48" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="J49" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="J50" r:id="rId23" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="J51" r:id="rId24" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="J30" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="J28" r:id="rId26" display="Genuine Omron Solid State Relay" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="L27" r:id="rId27" display="1x 310mm 220V 750W" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="L24" r:id="rId28" display="1x TMC2209 x8" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="L30" r:id="rId29" display="1x ADXL345 Accelerometer" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="J44" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="J45" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="J46" r:id="rId32" display="TBD" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="J32" r:id="rId33" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="L21" r:id="rId34" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="J53" r:id="rId35" display="https://www.aliexpress.com/item/4000071762309.html?spm=a2g0o.store_pc_allProduct.8148356.15.1894c53dn19kw8&amp;pdp_npi=2%40dis%21USD%21US%20%241.48%21US%20%241.26%21%21%21%21%21%402100bde116564933129322644e26f5%2112000029019588359%21sh" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="J54" r:id="rId36" display="https://www.aliexpress.com/item/4000071762309.html?spm=a2g0o.store_pc_allProduct.8148356.15.1894c53dn19kw8&amp;pdp_npi=2%40dis%21USD%21US%20%241.48%21US%20%241.26%21%21%21%21%21%402100bde116564933129322644e26f5%2112000029019588359%21sh" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="J55" r:id="rId37" display="1xAHT25+AHT21 Sensor" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="J52" r:id="rId38" xr:uid="{AA63318B-CE23-4460-98F0-9BED57088735}"/>
+    <hyperlink ref="J47" r:id="rId39" xr:uid="{C73F053A-AB99-4F9A-AB96-34675FD56AAD}"/>
+    <hyperlink ref="J34" r:id="rId40" xr:uid="{6B0C3554-C92C-477C-968B-C3A56DEE5BB2}"/>
+    <hyperlink ref="J35" r:id="rId41" xr:uid="{230B31B2-E3E9-4D33-8792-EA389633978B}"/>
+    <hyperlink ref="J19" r:id="rId42" xr:uid="{AE44EAD7-69DD-4806-9E2F-C1401214B95A}"/>
+    <hyperlink ref="J4" r:id="rId43" display="Color: 369 mm" xr:uid="{DEB61E4F-1486-491A-838D-61337A0DB5B3}"/>
+    <hyperlink ref="J5" r:id="rId44" xr:uid="{B0B2353F-D76B-49D2-92E2-924AA7C3940B}"/>
+    <hyperlink ref="J6" r:id="rId45" xr:uid="{A49E22B6-E552-4BE6-8729-184F520A838F}"/>
+    <hyperlink ref="J7" r:id="rId46" xr:uid="{47004657-0518-4245-B471-B34B5125E399}"/>
+    <hyperlink ref="J8" r:id="rId47" xr:uid="{6BAD6695-28C3-4B6D-8A72-B08E82F940DF}"/>
+    <hyperlink ref="J9" r:id="rId48" display="Color: 10pcs 2028" xr:uid="{C4B95C3B-16B9-4394-9F39-5B9FF78AC176}"/>
+    <hyperlink ref="J10" r:id="rId49" xr:uid="{3FB75D13-E1B1-4B85-B99D-0379606A4DAC}"/>
+    <hyperlink ref="M10" r:id="rId50" xr:uid="{03D23144-4452-41B9-B4B9-F51023FDC698}"/>
+    <hyperlink ref="M11" r:id="rId51" xr:uid="{410E10AD-6201-406C-BD2E-0E2A08BBF18C}"/>
+    <hyperlink ref="M12" r:id="rId52" xr:uid="{D0E8BE37-F76A-4921-AA1C-3F7A7D64A7BC}"/>
+    <hyperlink ref="J16" r:id="rId53" display="Makersupplies Complete Kit" xr:uid="{036B3E6D-568B-4079-9529-92EC099AA1B7}"/>
+    <hyperlink ref="J17" r:id="rId54" xr:uid="{3707A5E6-020E-4B23-B131-7499054C07E0}"/>
+    <hyperlink ref="J11" r:id="rId55" display="3xMGN 12H/350mm. NB! See note" xr:uid="{986BFB62-2F43-4E2D-BFCC-8BCC1953B23E}"/>
+    <hyperlink ref="J12" r:id="rId56" display="2xMGN12H/400mm. NB! See note" xr:uid="{AA85535F-A673-475C-AAB1-659BA149B4A6}"/>
+    <hyperlink ref="J13" r:id="rId57" display="1xMGN9H/400mm. NB! Seee note" xr:uid="{1F404FCE-EF32-4B37-BC20-7599369658D5}"/>
+    <hyperlink ref="J31" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
@@ -5394,19 +5394,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="27.75" thickBot="1">
-      <c r="A1" s="112" t="s">
-        <v>250</v>
-      </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
-      <c r="K1" s="112"/>
+      <c r="A1" s="113" t="s">
+        <v>248</v>
+      </c>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
+      <c r="K1" s="113"/>
     </row>
     <row r="2" spans="1:20" s="6" customFormat="1" ht="16.5" thickBot="1">
       <c r="A2" s="42" t="s">
@@ -5501,7 +5501,7 @@
         <v>4.3099999999999996</v>
       </c>
       <c r="G4" s="48" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H4" s="12" t="s">
         <v>169</v>
@@ -5588,7 +5588,7 @@
         <v>64</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C7" s="9">
         <v>6</v>
@@ -5653,10 +5653,10 @@
     </row>
     <row r="9" spans="1:20">
       <c r="A9" s="17" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C9" s="9">
         <v>8</v>
@@ -5671,7 +5671,7 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="G9" s="47" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="H9" s="12" t="s">
         <v>48</v>
@@ -5681,7 +5681,7 @@
       </c>
       <c r="J9" s="51"/>
       <c r="K9" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="L9" s="86"/>
     </row>
@@ -5716,7 +5716,7 @@
         <v>7380</v>
       </c>
       <c r="K10" s="87" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="L10" s="86"/>
     </row>
@@ -5725,7 +5725,7 @@
         <v>68</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C11">
         <v>11</v>
@@ -5740,7 +5740,7 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="G11" s="47" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="H11" s="41" t="s">
         <v>48</v>
@@ -5752,7 +5752,7 @@
         <v>10642</v>
       </c>
       <c r="K11" s="87" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="L11" s="86"/>
     </row>
@@ -5787,7 +5787,7 @@
       </c>
       <c r="J12" s="52"/>
       <c r="K12" s="87" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="L12" s="86"/>
     </row>
@@ -5829,7 +5829,7 @@
         <v>68</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C14">
         <v>29</v>
@@ -5844,7 +5844,7 @@
         <v>1.07</v>
       </c>
       <c r="G14" s="47" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="H14" s="41" t="s">
         <v>48</v>
@@ -5888,17 +5888,17 @@
       <c r="J15" s="52">
         <v>7380</v>
       </c>
-      <c r="K15" s="113" t="s">
-        <v>284</v>
-      </c>
-      <c r="L15" s="114"/>
+      <c r="K15" s="114" t="s">
+        <v>282</v>
+      </c>
+      <c r="L15" s="115"/>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" s="17" t="s">
         <v>68</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C16">
         <v>4</v>
@@ -5914,7 +5914,7 @@
         <v>1.5</v>
       </c>
       <c r="G16" s="47" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="H16" s="12" t="s">
         <v>48</v>
@@ -5923,8 +5923,8 @@
         <v>912</v>
       </c>
       <c r="J16" s="52"/>
-      <c r="K16" s="113"/>
-      <c r="L16" s="114"/>
+      <c r="K16" s="114"/>
+      <c r="L16" s="115"/>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="7" t="s">
@@ -5987,10 +5987,10 @@
       </c>
       <c r="I18" s="15"/>
       <c r="J18" s="51"/>
-      <c r="K18" s="113" t="s">
-        <v>287</v>
-      </c>
-      <c r="L18" s="114"/>
+      <c r="K18" s="114" t="s">
+        <v>285</v>
+      </c>
+      <c r="L18" s="115"/>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="7" t="s">
@@ -6013,22 +6013,22 @@
         <v>12</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H19" s="12" t="s">
         <v>77</v>
       </c>
       <c r="I19" s="15"/>
       <c r="J19" s="51"/>
-      <c r="K19" s="113"/>
-      <c r="L19" s="114"/>
+      <c r="K19" s="114"/>
+      <c r="L19" s="115"/>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="17" t="s">
         <v>68</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -6044,7 +6044,7 @@
         <v>4</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="H20" s="12" t="s">
         <v>77</v>
@@ -6086,17 +6086,17 @@
       <c r="J21" s="52">
         <v>4032</v>
       </c>
-      <c r="K21" s="113" t="s">
-        <v>286</v>
-      </c>
-      <c r="L21" s="114"/>
+      <c r="K21" s="114" t="s">
+        <v>284</v>
+      </c>
+      <c r="L21" s="115"/>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="7" t="s">
         <v>64</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C22">
         <v>9</v>
@@ -6123,8 +6123,8 @@
       <c r="J22" s="51">
         <v>10511</v>
       </c>
-      <c r="K22" s="113"/>
-      <c r="L22" s="114"/>
+      <c r="K22" s="114"/>
+      <c r="L22" s="115"/>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="7" t="s">
@@ -6236,7 +6236,7 @@
         <v>68</v>
       </c>
       <c r="B26" s="58" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C26">
         <v>4</v>
@@ -6252,7 +6252,7 @@
         <v>3.28</v>
       </c>
       <c r="G26" s="47" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H26" s="12" t="s">
         <v>48</v>
@@ -6401,7 +6401,7 @@
         <v>161</v>
       </c>
       <c r="B31" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C31" s="9">
         <v>1</v>
@@ -6534,7 +6534,7 @@
         <v>68</v>
       </c>
       <c r="B35" s="56" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C35">
         <v>4</v>
@@ -6549,7 +6549,7 @@
         <v>1.64</v>
       </c>
       <c r="G35" s="47" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H35" s="12" t="s">
         <v>77</v>
@@ -6599,7 +6599,7 @@
         <v>101</v>
       </c>
       <c r="B37" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C37">
         <v>15</v>
@@ -6615,7 +6615,7 @@
         <v>6.08</v>
       </c>
       <c r="G37" s="47" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="H37" s="12" t="s">
         <v>48</v>
@@ -6663,7 +6663,7 @@
         <v>45</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C39" s="9">
         <v>1</v>
@@ -6678,10 +6678,10 @@
         <v>9.5</v>
       </c>
       <c r="G39" s="47" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="H39" s="41" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I39" s="15"/>
       <c r="J39" s="51"/>
@@ -6693,7 +6693,7 @@
         <v>57</v>
       </c>
       <c r="B40" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C40">
         <v>3</v>
@@ -6724,7 +6724,7 @@
         <v>57</v>
       </c>
       <c r="B41" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C41" s="9">
         <v>6</v>
@@ -6733,16 +6733,16 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F41" s="39">
         <v>9.1999999999999993</v>
       </c>
       <c r="G41" s="47" t="s">
+        <v>243</v>
+      </c>
+      <c r="H41" s="12" t="s">
         <v>245</v>
-      </c>
-      <c r="H41" s="12" t="s">
-        <v>247</v>
       </c>
       <c r="I41" s="15"/>
       <c r="J41" s="51"/>
@@ -6979,7 +6979,7 @@
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A15" sqref="A15:K17"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -6999,20 +6999,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="27">
-      <c r="A1" s="112" t="s">
-        <v>282</v>
-      </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
-      <c r="K1" s="112"/>
-      <c r="L1" s="112"/>
+      <c r="A1" s="113" t="s">
+        <v>280</v>
+      </c>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
+      <c r="K1" s="113"/>
+      <c r="L1" s="113"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1"/>
@@ -7021,7 +7021,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -7033,7 +7033,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="59" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="J3" s="2"/>
     </row>
@@ -7044,7 +7044,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="59" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="J4" s="2"/>
     </row>
@@ -7054,7 +7054,7 @@
         <v>3</v>
       </c>
       <c r="E5" s="59" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="J5" s="2"/>
     </row>
@@ -7064,7 +7064,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D6" s="43" t="s">
         <v>5</v>
@@ -7075,7 +7075,7 @@
       <c r="H6" s="44"/>
       <c r="I6" s="45">
         <f>I47</f>
-        <v>1535.2539999999999</v>
+        <v>1557.2539999999999</v>
       </c>
       <c r="J6" s="43"/>
       <c r="K6" s="50"/>
@@ -7148,7 +7148,7 @@
         <v>8</v>
       </c>
       <c r="J8" s="57" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="K8" s="28" t="s">
         <v>24</v>
@@ -7349,7 +7349,7 @@
         <v>33</v>
       </c>
       <c r="D14" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F14" s="9">
         <v>4</v>
@@ -7365,7 +7365,7 @@
         <v>40</v>
       </c>
       <c r="J14" s="25" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K14" s="27" t="s">
         <v>24</v>
@@ -7383,7 +7383,7 @@
         <v>147</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="E15">
         <v>350</v>
@@ -7402,10 +7402,10 @@
         <v>120</v>
       </c>
       <c r="J15" s="25" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="K15" s="27" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="L15" s="72"/>
     </row>
@@ -7420,7 +7420,7 @@
         <v>147</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E16">
         <v>400</v>
@@ -7439,10 +7439,10 @@
         <v>72</v>
       </c>
       <c r="J16" s="25" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="K16" s="27" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="L16" s="72"/>
     </row>
@@ -7457,7 +7457,7 @@
         <v>147</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="E17">
         <v>400</v>
@@ -7476,10 +7476,10 @@
         <v>34</v>
       </c>
       <c r="J17" s="25" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="K17" s="27" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="L17" s="72"/>
       <c r="M17" s="2"/>
@@ -7495,7 +7495,7 @@
         <v>35</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="10"/>
@@ -7504,7 +7504,7 @@
         <f>SUBTOTAL(109,I8:I17)</f>
         <v>453.94400000000002</v>
       </c>
-      <c r="J18" s="115"/>
+      <c r="J18" s="112"/>
       <c r="K18" s="27"/>
       <c r="L18" s="72"/>
     </row>
@@ -7519,7 +7519,7 @@
         <v>35</v>
       </c>
       <c r="D19" s="102" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E19" s="102"/>
       <c r="F19" s="103"/>
@@ -7528,7 +7528,7 @@
       <c r="I19" s="105"/>
       <c r="J19" s="106"/>
       <c r="K19" s="107" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="L19" s="73"/>
     </row>
@@ -7543,7 +7543,7 @@
         <v>35</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="92">
@@ -7558,7 +7558,7 @@
         <v>0</v>
       </c>
       <c r="J20" s="69" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K20" s="98" t="s">
         <v>41</v>
@@ -7576,7 +7576,7 @@
         <v>35</v>
       </c>
       <c r="D21" s="95" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E21" s="95"/>
       <c r="F21" s="96">
@@ -7591,7 +7591,7 @@
         <v>0</v>
       </c>
       <c r="J21" s="110" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K21" s="99" t="s">
         <v>41</v>
@@ -7609,7 +7609,7 @@
         <v>36</v>
       </c>
       <c r="D22" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="E22">
         <v>410</v>
@@ -7628,10 +7628,10 @@
         <v>8</v>
       </c>
       <c r="J22" s="108" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="K22" s="12" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="L22" s="74"/>
     </row>
@@ -8037,27 +8037,27 @@
       <c r="C34" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="D34" s="18" t="s">
-        <v>225</v>
+      <c r="D34" s="2" t="s">
+        <v>320</v>
       </c>
       <c r="F34" s="9">
         <v>1</v>
       </c>
       <c r="G34" s="10">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="H34" s="9">
         <v>1</v>
       </c>
       <c r="I34" s="39">
         <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="J34" s="49" t="s">
-        <v>226</v>
-      </c>
-      <c r="K34" s="41" t="s">
-        <v>133</v>
+        <v>82</v>
+      </c>
+      <c r="J34" s="108" t="s">
+        <v>321</v>
+      </c>
+      <c r="K34" s="81" t="s">
+        <v>322</v>
       </c>
       <c r="L34" s="74"/>
     </row>
@@ -8106,26 +8106,26 @@
         <v>124</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>301</v>
+        <v>319</v>
       </c>
       <c r="F36" s="9">
         <v>1</v>
       </c>
       <c r="G36" s="10">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="H36" s="9">
         <v>1</v>
       </c>
       <c r="I36" s="39">
         <f t="shared" si="0"/>
-        <v>65</v>
-      </c>
-      <c r="J36" s="47" t="s">
-        <v>302</v>
+        <v>45</v>
+      </c>
+      <c r="J36" s="24" t="s">
+        <v>319</v>
       </c>
       <c r="K36" s="81" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="L36" s="74"/>
       <c r="M36" s="89"/>
@@ -8141,7 +8141,7 @@
         <v>36</v>
       </c>
       <c r="D37" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F37" s="9">
         <v>1</v>
@@ -8157,7 +8157,7 @@
         <v>3.75</v>
       </c>
       <c r="J37" s="47" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K37" s="12" t="s">
         <v>133</v>
@@ -8448,7 +8448,7 @@
         <v>219</v>
       </c>
       <c r="D46" s="60" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E46" s="62"/>
       <c r="F46" s="63"/>
@@ -8470,7 +8470,7 @@
         <v>4</v>
       </c>
       <c r="C47" s="42" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D47" s="43" t="s">
         <v>5</v>
@@ -8481,7 +8481,7 @@
       <c r="H47" s="44"/>
       <c r="I47" s="45">
         <f>SUM(I22:I46)+I18</f>
-        <v>1535.2539999999999</v>
+        <v>1557.2539999999999</v>
       </c>
       <c r="J47" s="43"/>
       <c r="K47" s="50"/>
@@ -8504,38 +8504,38 @@
     <hyperlink ref="J30" r:id="rId10" display="1x Select Color: 220V/110V" xr:uid="{9FDFF617-EA44-4AEF-94B3-7A6DFD7ABC2B}"/>
     <hyperlink ref="L31" r:id="rId11" xr:uid="{71DEEDB0-7B61-48B4-BC76-A61F8C23F5B9}"/>
     <hyperlink ref="J32" r:id="rId12" display="1x 10Pcs Temperature: 160 degree" xr:uid="{461B8D06-59FB-41C4-928C-E9227731CF33}"/>
-    <hyperlink ref="J34" r:id="rId13" display="Color: Dragon-Standard flow" xr:uid="{539783F9-23A6-4CCC-B7BB-C7ADEFC949C0}"/>
-    <hyperlink ref="J40" r:id="rId14" xr:uid="{A7214C33-6F25-4CDB-9911-EEF1726351C4}"/>
-    <hyperlink ref="J41" r:id="rId15" xr:uid="{E08B44CE-7743-429C-9F00-B49F9DD380B4}"/>
-    <hyperlink ref="J42" r:id="rId16" xr:uid="{EB4CB8F1-4307-4941-9AA9-E58D1445C7BA}"/>
-    <hyperlink ref="J43" r:id="rId17" xr:uid="{33176838-55A5-442D-8597-7714779D23E5}"/>
-    <hyperlink ref="J44" r:id="rId18" xr:uid="{D16F093E-C063-4095-B981-70EB7556273F}"/>
-    <hyperlink ref="J45" r:id="rId19" xr:uid="{DFD3B466-58C0-4BB0-A240-40DE084EB6EB}"/>
-    <hyperlink ref="J33" r:id="rId20" xr:uid="{B23C80B2-ADFE-48FF-8206-624B1C458D35}"/>
-    <hyperlink ref="J31" r:id="rId21" display="Genuine Omron Solid State Relay" xr:uid="{E09F19DF-B73C-4B79-A825-B8B9B38DA427}"/>
-    <hyperlink ref="L30" r:id="rId22" display="1x 310mm 220V 750W" xr:uid="{E00DD198-4D39-468C-A7C5-6517124B60C1}"/>
-    <hyperlink ref="L27" r:id="rId23" display="1x TMC2209 x8" xr:uid="{07910DC6-ADF8-4CD3-B110-882C7B40E38D}"/>
-    <hyperlink ref="L33" r:id="rId24" display="1x ADXL345 Accelerometer" xr:uid="{EE8C9D4C-8156-46D9-8266-752CAEDB4527}"/>
-    <hyperlink ref="J35" r:id="rId25" xr:uid="{574B19B8-679E-4BB1-95E3-481B7E6B7CC3}"/>
-    <hyperlink ref="L24" r:id="rId26" xr:uid="{7CCAA504-70EE-480A-B0F9-05946499668E}"/>
-    <hyperlink ref="J37" r:id="rId27" xr:uid="{435830FE-9D28-4F8A-A580-BF2BE5EA2233}"/>
-    <hyperlink ref="E3" r:id="rId28" xr:uid="{8D7BE965-D64F-4EF6-AB85-6D60325E0F14}"/>
-    <hyperlink ref="E4" r:id="rId29" xr:uid="{1AB1BA1F-E652-4A59-AFD9-CF100F7A0675}"/>
-    <hyperlink ref="E5" r:id="rId30" xr:uid="{E1E6DD43-4F3E-40D4-869F-6509B89AF289}"/>
-    <hyperlink ref="J8" r:id="rId31" display="Color: 369 mm" xr:uid="{EC02321E-B7C3-4FC1-B874-04DFA25238EB}"/>
-    <hyperlink ref="J9" r:id="rId32" xr:uid="{75B54B15-A33C-4E87-8110-F508CB5C1277}"/>
-    <hyperlink ref="J10" r:id="rId33" xr:uid="{83361321-C27C-4029-97C6-080CDFE55588}"/>
-    <hyperlink ref="J11" r:id="rId34" xr:uid="{3ED6FC78-17EA-44FD-B607-926496CA6227}"/>
-    <hyperlink ref="J12" r:id="rId35" xr:uid="{34AFF23F-EEEB-46E8-9558-765383CF7C14}"/>
-    <hyperlink ref="J13" r:id="rId36" display="Color: 10pcs 2028" xr:uid="{BED46395-E185-4988-9D32-2CBED9A54CB5}"/>
-    <hyperlink ref="J14" r:id="rId37" xr:uid="{8B46BDD2-E98B-4C9A-A160-CDE182501C27}"/>
-    <hyperlink ref="J20" r:id="rId38" display="Makersupplies Complete Kit" xr:uid="{99CD1EB2-A71D-4BEA-A810-8742818402F2}"/>
-    <hyperlink ref="J21" r:id="rId39" xr:uid="{3B3B38BE-12A4-4908-A7D0-77B2122C84CB}"/>
-    <hyperlink ref="J36" r:id="rId40" xr:uid="{D50E2F4E-5674-4F27-AE38-26EAD033D64F}"/>
-    <hyperlink ref="J15" r:id="rId41" display="3xMGN 12H/350mm. NB! See note" xr:uid="{9DF24142-1128-4DA9-82BF-881DB0AE2B75}"/>
-    <hyperlink ref="J16" r:id="rId42" display="2xMGN12H/400mm. NB! See note" xr:uid="{3CC379EE-1A30-4A47-ADAE-0C1CC69A0BB9}"/>
-    <hyperlink ref="J17" r:id="rId43" display="1xMGN9H/400mm. NB! Seee note" xr:uid="{85E708C4-24F3-4615-975D-E526035BAA0A}"/>
-    <hyperlink ref="J22" r:id="rId44" xr:uid="{E876E442-67AF-4B42-95D0-7C4518ABA9B9}"/>
+    <hyperlink ref="J40" r:id="rId13" xr:uid="{A7214C33-6F25-4CDB-9911-EEF1726351C4}"/>
+    <hyperlink ref="J41" r:id="rId14" xr:uid="{E08B44CE-7743-429C-9F00-B49F9DD380B4}"/>
+    <hyperlink ref="J42" r:id="rId15" xr:uid="{EB4CB8F1-4307-4941-9AA9-E58D1445C7BA}"/>
+    <hyperlink ref="J43" r:id="rId16" xr:uid="{33176838-55A5-442D-8597-7714779D23E5}"/>
+    <hyperlink ref="J44" r:id="rId17" xr:uid="{D16F093E-C063-4095-B981-70EB7556273F}"/>
+    <hyperlink ref="J45" r:id="rId18" xr:uid="{DFD3B466-58C0-4BB0-A240-40DE084EB6EB}"/>
+    <hyperlink ref="J33" r:id="rId19" xr:uid="{B23C80B2-ADFE-48FF-8206-624B1C458D35}"/>
+    <hyperlink ref="J31" r:id="rId20" display="Genuine Omron Solid State Relay" xr:uid="{E09F19DF-B73C-4B79-A825-B8B9B38DA427}"/>
+    <hyperlink ref="L30" r:id="rId21" display="1x 310mm 220V 750W" xr:uid="{E00DD198-4D39-468C-A7C5-6517124B60C1}"/>
+    <hyperlink ref="L27" r:id="rId22" display="1x TMC2209 x8" xr:uid="{07910DC6-ADF8-4CD3-B110-882C7B40E38D}"/>
+    <hyperlink ref="L33" r:id="rId23" display="1x ADXL345 Accelerometer" xr:uid="{EE8C9D4C-8156-46D9-8266-752CAEDB4527}"/>
+    <hyperlink ref="J35" r:id="rId24" xr:uid="{574B19B8-679E-4BB1-95E3-481B7E6B7CC3}"/>
+    <hyperlink ref="L24" r:id="rId25" xr:uid="{7CCAA504-70EE-480A-B0F9-05946499668E}"/>
+    <hyperlink ref="J37" r:id="rId26" xr:uid="{435830FE-9D28-4F8A-A580-BF2BE5EA2233}"/>
+    <hyperlink ref="E3" r:id="rId27" xr:uid="{8D7BE965-D64F-4EF6-AB85-6D60325E0F14}"/>
+    <hyperlink ref="E4" r:id="rId28" xr:uid="{1AB1BA1F-E652-4A59-AFD9-CF100F7A0675}"/>
+    <hyperlink ref="E5" r:id="rId29" xr:uid="{E1E6DD43-4F3E-40D4-869F-6509B89AF289}"/>
+    <hyperlink ref="J8" r:id="rId30" display="Color: 369 mm" xr:uid="{EC02321E-B7C3-4FC1-B874-04DFA25238EB}"/>
+    <hyperlink ref="J9" r:id="rId31" xr:uid="{75B54B15-A33C-4E87-8110-F508CB5C1277}"/>
+    <hyperlink ref="J10" r:id="rId32" xr:uid="{83361321-C27C-4029-97C6-080CDFE55588}"/>
+    <hyperlink ref="J11" r:id="rId33" xr:uid="{3ED6FC78-17EA-44FD-B607-926496CA6227}"/>
+    <hyperlink ref="J12" r:id="rId34" xr:uid="{34AFF23F-EEEB-46E8-9558-765383CF7C14}"/>
+    <hyperlink ref="J13" r:id="rId35" display="Color: 10pcs 2028" xr:uid="{BED46395-E185-4988-9D32-2CBED9A54CB5}"/>
+    <hyperlink ref="J14" r:id="rId36" xr:uid="{8B46BDD2-E98B-4C9A-A160-CDE182501C27}"/>
+    <hyperlink ref="J20" r:id="rId37" display="Makersupplies Complete Kit" xr:uid="{99CD1EB2-A71D-4BEA-A810-8742818402F2}"/>
+    <hyperlink ref="J21" r:id="rId38" xr:uid="{3B3B38BE-12A4-4908-A7D0-77B2122C84CB}"/>
+    <hyperlink ref="J15" r:id="rId39" display="3xMGN 12H/350mm. NB! See note" xr:uid="{9DF24142-1128-4DA9-82BF-881DB0AE2B75}"/>
+    <hyperlink ref="J16" r:id="rId40" display="2xMGN12H/400mm. NB! See note" xr:uid="{3CC379EE-1A30-4A47-ADAE-0C1CC69A0BB9}"/>
+    <hyperlink ref="J17" r:id="rId41" display="1xMGN9H/400mm. NB! Seee note" xr:uid="{85E708C4-24F3-4615-975D-E526035BAA0A}"/>
+    <hyperlink ref="J22" r:id="rId42" xr:uid="{E876E442-67AF-4B42-95D0-7C4518ABA9B9}"/>
+    <hyperlink ref="J36" r:id="rId43" xr:uid="{ACD3DDB2-5981-4953-AE52-C58A698A8004}"/>
+    <hyperlink ref="J34" r:id="rId44" xr:uid="{99194C2B-3C81-4D41-BD4E-E013186625A5}"/>
   </hyperlinks>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId45"/>

--- a/Document Library/Bill Of Materials/Valkyrie BOM v1.2.0.xlsx
+++ b/Document Library/Bill Of Materials/Valkyrie BOM v1.2.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3837cd5b4a1a02ac/Document Library/GitHub/Project-Valkyrie/Document Library/Bill Of Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="699" documentId="11_BB46956AE7341EA83D7747123DA4EA88538076BF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D79993A8-5C75-4F09-A993-0E26C252F289}"/>
+  <xr:revisionPtr revIDLastSave="705" documentId="11_BB46956AE7341EA83D7747123DA4EA88538076BF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{73828843-78F0-4C17-B48C-FBD461149723}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Valkyrie Stage-I" sheetId="1" r:id="rId1"/>
@@ -1419,9 +1419,6 @@
     <t>BTT</t>
   </si>
   <si>
-    <t>Color: 339 mm</t>
-  </si>
-  <si>
     <t>DHT22 Humididty + Temp Sensor</t>
   </si>
   <si>
@@ -1491,6 +1488,9 @@
   </si>
   <si>
     <t>Dilan</t>
+  </si>
+  <si>
+    <t>Color: 369 mm</t>
   </si>
 </sst>
 </file>
@@ -3171,7 +3171,7 @@
   </sheetPr>
   <dimension ref="A1:N58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
@@ -3286,7 +3286,7 @@
         <v>23</v>
       </c>
       <c r="E4" s="21">
-        <v>339</v>
+        <v>369</v>
       </c>
       <c r="F4" s="22">
         <v>1</v>
@@ -3300,8 +3300,8 @@
       <c r="I4" s="38">
         <v>8</v>
       </c>
-      <c r="J4" s="26" t="s">
-        <v>301</v>
+      <c r="J4" s="25" t="s">
+        <v>322</v>
       </c>
       <c r="K4" s="28" t="s">
         <v>24</v>
@@ -3561,7 +3561,7 @@
         <v>147</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E11">
         <v>350</v>
@@ -3580,7 +3580,7 @@
         <v>120</v>
       </c>
       <c r="J11" s="25" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K11" s="27" t="s">
         <v>299</v>
@@ -3602,7 +3602,7 @@
         <v>147</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E12">
         <v>400</v>
@@ -3621,7 +3621,7 @@
         <v>72</v>
       </c>
       <c r="J12" s="25" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K12" s="27" t="s">
         <v>299</v>
@@ -3643,7 +3643,7 @@
         <v>147</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E13">
         <v>400</v>
@@ -3662,7 +3662,7 @@
         <v>34</v>
       </c>
       <c r="J13" s="25" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K13" s="27" t="s">
         <v>299</v>
@@ -3806,7 +3806,7 @@
         <v>36</v>
       </c>
       <c r="D18" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E18">
         <v>410</v>
@@ -3825,10 +3825,10 @@
         <v>8</v>
       </c>
       <c r="J18" s="108" t="s">
+        <v>310</v>
+      </c>
+      <c r="K18" s="12" t="s">
         <v>311</v>
-      </c>
-      <c r="K18" s="12" t="s">
-        <v>312</v>
       </c>
       <c r="L18" s="74"/>
       <c r="M18" s="114"/>
@@ -3845,7 +3845,7 @@
         <v>36</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E19">
         <v>230</v>
@@ -3864,10 +3864,10 @@
         <v>14</v>
       </c>
       <c r="J19" s="108" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="K19" s="81" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="L19" s="74"/>
       <c r="M19" s="89"/>
@@ -4302,7 +4302,7 @@
         <v>125</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F31" s="9">
         <v>1</v>
@@ -4318,10 +4318,10 @@
         <v>82</v>
       </c>
       <c r="J31" s="108" t="s">
+        <v>320</v>
+      </c>
+      <c r="K31" s="81" t="s">
         <v>321</v>
-      </c>
-      <c r="K31" s="81" t="s">
-        <v>322</v>
       </c>
       <c r="L31" s="74"/>
       <c r="M31" s="89"/>
@@ -4374,7 +4374,7 @@
         <v>124</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F33" s="9">
         <v>1</v>
@@ -4390,7 +4390,7 @@
         <v>45</v>
       </c>
       <c r="J33" s="24" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K33" s="81" t="s">
         <v>300</v>
@@ -5045,7 +5045,7 @@
         <v>3.96</v>
       </c>
       <c r="J51" s="108" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K51" s="12" t="s">
         <v>209</v>
@@ -5173,7 +5173,7 @@
         <v>163</v>
       </c>
       <c r="D55" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F55" s="9">
         <v>1</v>
@@ -5189,10 +5189,10 @@
         <v>3</v>
       </c>
       <c r="J55" s="24" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="K55" s="81" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="L55" s="75"/>
       <c r="M55" s="89"/>
@@ -5209,7 +5209,7 @@
         <v>191</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F56" s="9">
         <v>1</v>
@@ -5228,7 +5228,7 @@
         <v>261</v>
       </c>
       <c r="K56" s="81" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L56" s="77"/>
       <c r="M56" s="89"/>
@@ -5337,7 +5337,7 @@
     <hyperlink ref="J34" r:id="rId40" xr:uid="{6B0C3554-C92C-477C-968B-C3A56DEE5BB2}"/>
     <hyperlink ref="J35" r:id="rId41" xr:uid="{230B31B2-E3E9-4D33-8792-EA389633978B}"/>
     <hyperlink ref="J19" r:id="rId42" xr:uid="{AE44EAD7-69DD-4806-9E2F-C1401214B95A}"/>
-    <hyperlink ref="J4" r:id="rId43" display="Color: 369 mm" xr:uid="{DEB61E4F-1486-491A-838D-61337A0DB5B3}"/>
+    <hyperlink ref="J4" r:id="rId43" xr:uid="{DEB61E4F-1486-491A-838D-61337A0DB5B3}"/>
     <hyperlink ref="J5" r:id="rId44" xr:uid="{B0B2353F-D76B-49D2-92E2-924AA7C3940B}"/>
     <hyperlink ref="J6" r:id="rId45" xr:uid="{A49E22B6-E552-4BE6-8729-184F520A838F}"/>
     <hyperlink ref="J7" r:id="rId46" xr:uid="{47004657-0518-4245-B471-B34B5125E399}"/>
@@ -6977,7 +6977,7 @@
   </sheetPr>
   <dimension ref="A1:M47"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
@@ -7133,7 +7133,7 @@
         <v>23</v>
       </c>
       <c r="E8" s="21">
-        <v>339</v>
+        <v>369</v>
       </c>
       <c r="F8" s="22">
         <v>1</v>
@@ -7148,7 +7148,7 @@
         <v>8</v>
       </c>
       <c r="J8" s="57" t="s">
-        <v>301</v>
+        <v>322</v>
       </c>
       <c r="K8" s="28" t="s">
         <v>24</v>
@@ -7383,7 +7383,7 @@
         <v>147</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E15">
         <v>350</v>
@@ -7402,7 +7402,7 @@
         <v>120</v>
       </c>
       <c r="J15" s="25" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K15" s="27" t="s">
         <v>299</v>
@@ -7420,7 +7420,7 @@
         <v>147</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E16">
         <v>400</v>
@@ -7439,7 +7439,7 @@
         <v>72</v>
       </c>
       <c r="J16" s="25" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K16" s="27" t="s">
         <v>299</v>
@@ -7457,7 +7457,7 @@
         <v>147</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E17">
         <v>400</v>
@@ -7476,7 +7476,7 @@
         <v>34</v>
       </c>
       <c r="J17" s="25" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K17" s="27" t="s">
         <v>299</v>
@@ -7609,7 +7609,7 @@
         <v>36</v>
       </c>
       <c r="D22" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E22">
         <v>410</v>
@@ -7628,10 +7628,10 @@
         <v>8</v>
       </c>
       <c r="J22" s="108" t="s">
+        <v>310</v>
+      </c>
+      <c r="K22" s="12" t="s">
         <v>311</v>
-      </c>
-      <c r="K22" s="12" t="s">
-        <v>312</v>
       </c>
       <c r="L22" s="74"/>
     </row>
@@ -8038,7 +8038,7 @@
         <v>125</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F34" s="9">
         <v>1</v>
@@ -8054,10 +8054,10 @@
         <v>82</v>
       </c>
       <c r="J34" s="108" t="s">
+        <v>320</v>
+      </c>
+      <c r="K34" s="81" t="s">
         <v>321</v>
-      </c>
-      <c r="K34" s="81" t="s">
-        <v>322</v>
       </c>
       <c r="L34" s="74"/>
     </row>
@@ -8106,7 +8106,7 @@
         <v>124</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F36" s="9">
         <v>1</v>
@@ -8122,7 +8122,7 @@
         <v>45</v>
       </c>
       <c r="J36" s="24" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K36" s="81" t="s">
         <v>300</v>
@@ -8521,7 +8521,7 @@
     <hyperlink ref="E3" r:id="rId27" xr:uid="{8D7BE965-D64F-4EF6-AB85-6D60325E0F14}"/>
     <hyperlink ref="E4" r:id="rId28" xr:uid="{1AB1BA1F-E652-4A59-AFD9-CF100F7A0675}"/>
     <hyperlink ref="E5" r:id="rId29" xr:uid="{E1E6DD43-4F3E-40D4-869F-6509B89AF289}"/>
-    <hyperlink ref="J8" r:id="rId30" display="Color: 369 mm" xr:uid="{EC02321E-B7C3-4FC1-B874-04DFA25238EB}"/>
+    <hyperlink ref="J8" r:id="rId30" xr:uid="{EC02321E-B7C3-4FC1-B874-04DFA25238EB}"/>
     <hyperlink ref="J9" r:id="rId31" xr:uid="{75B54B15-A33C-4E87-8110-F508CB5C1277}"/>
     <hyperlink ref="J10" r:id="rId32" xr:uid="{83361321-C27C-4029-97C6-080CDFE55588}"/>
     <hyperlink ref="J11" r:id="rId33" xr:uid="{3ED6FC78-17EA-44FD-B607-926496CA6227}"/>
